--- a/data/Cleaned_Data.xlsx
+++ b/data/Cleaned_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holde\_Villanova\Junior Spring\Machine-Learning\_final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC08DB-0518-4604-84FD-AD220890D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74359656-51EB-46A7-96FD-8F7403F351D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="9" xr2:uid="{AB9AB9B0-C27F-4564-94E8-73F2C94166A3}"/>
+    <workbookView xWindow="547" yWindow="0" windowWidth="25133" windowHeight="13593" activeTab="1" xr2:uid="{AB9AB9B0-C27F-4564-94E8-73F2C94166A3}"/>
   </bookViews>
   <sheets>
     <sheet name="NOW-US" sheetId="2" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1995,8 +1995,8 @@
   </sheetPr>
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -3913,8 +3913,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -4737,7 +4737,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -7532,7 +7532,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>

--- a/data/Cleaned_Data.xlsx
+++ b/data/Cleaned_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holde\_Villanova\Junior Spring\Machine-Learning\_final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904BDEB-6FE8-4251-8F79-65E81C082CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42B6AC-FC1C-45EC-AD2B-6C14814AD662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="153" yWindow="87" windowWidth="25134" windowHeight="13593" xr2:uid="{AB9AB9B0-C27F-4564-94E8-73F2C94166A3}"/>
+    <workbookView xWindow="153" yWindow="87" windowWidth="25134" windowHeight="13593" activeTab="9" xr2:uid="{AB9AB9B0-C27F-4564-94E8-73F2C94166A3}"/>
   </bookViews>
   <sheets>
     <sheet name="NOW-US" sheetId="2" r:id="rId1"/>
@@ -761,8 +761,8 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1630,7 +1630,7 @@
         <v>1.1996355768135747</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="0"/>
+        <f>(O2-P2)/P2</f>
         <v>3.7133655394524965</v>
       </c>
     </row>
@@ -2039,33 +2039,26 @@
         <f t="shared" si="7"/>
         <v>7.013317732888262E-2</v>
       </c>
-      <c r="I24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2077,9 +2070,8 @@
         <f t="shared" si="8"/>
         <v>-0.93564165272235811</v>
       </c>
-      <c r="C25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="1">
+        <v>-0.93564165272235811</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="8"/>
@@ -2093,41 +2085,33 @@
         <f t="shared" si="8"/>
         <v>-0.99114391143911451</v>
       </c>
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="G25" s="1">
+        <v>-0.93564165272235811</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="1" t="e">
-        <f>(M10-N10)/N10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2583,8 +2567,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -3054,511 +3038,502 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f>(A2-B2)/B2</f>
+        <f t="shared" ref="A17:H17" si="0">(A2-B2)/B2</f>
         <v>0.23563586098670333</v>
       </c>
       <c r="B17" s="1">
-        <f>(B2-C2)/C2</f>
+        <f t="shared" si="0"/>
         <v>0.62077848759471088</v>
       </c>
       <c r="C17" s="1">
-        <f>(C2-D2)/D2</f>
+        <f t="shared" si="0"/>
         <v>0.5607428310404875</v>
       </c>
       <c r="D17" s="1">
-        <f>(D2-E2)/E2</f>
+        <f t="shared" si="0"/>
         <v>0.42410083345441091</v>
       </c>
       <c r="E17" s="1">
-        <f>(E2-F2)/F2</f>
+        <f t="shared" si="0"/>
         <v>0.59241536697971331</v>
       </c>
       <c r="F17" s="1">
-        <f>(F2-G2)/G2</f>
+        <f t="shared" si="0"/>
         <v>0.51271506637924869</v>
       </c>
       <c r="G17" s="1">
-        <f>(G2-H2)/H2</f>
+        <f t="shared" si="0"/>
         <v>0.56510426392779323</v>
       </c>
       <c r="H17" s="1">
-        <f>(H2-I2)/I2</f>
+        <f t="shared" si="0"/>
         <v>0.49561509672854565</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:H31" si="0">(A3-B3)/B3</f>
+        <f t="shared" ref="A18:H31" si="1">(A3-B3)/B3</f>
         <v>0.22578364849147411</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61517883221369585</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55163925139308045</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61636560392907691</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58587458745874577</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37867647058823523</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36493267749788855</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39470584159101935</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17040446168092868</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.465376335309302</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64461783706686804</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98935140367860597</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41513533941140346</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0948830409356725</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4039408866995074</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70707778556412049</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23846399781036282</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62239308190546183</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56338761513187419</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37653179333610703</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59404198320409174</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55019593872461703</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63203096448386997</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53269172013443311</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15161038859358439</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60999490307624016</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70114395994741696</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61897322692024681</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48143489635741604</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34178430519509723</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53166898358244985</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68377374550237924</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.3231143240213764E-2</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57876236764450617</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1864760579416787</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2661689304668524</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.1636637201429377</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.24200952299489634</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30659762321648104</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1616202287002739</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.478835978835981</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.90545272636318153</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.36062689908843754</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.15511417376030262</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1969762419006482</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7244897959183674</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.8582677165354333</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.29834254143646405</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.44558935294013685</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.02466082002849E-2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6197014925373132</v>
       </c>
-      <c r="D24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A25" s="1">
+        <v>0</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.97822217568840952</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46050921324260258</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62694364970767524</v>
       </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.18091390141542632</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49169058006516886</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2814030232063018</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0386930352536545</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.13609211055742979</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.5754850649162908E-2</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28227660363366702</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1406460830224621</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57129963898916969</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37043908472479897</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0314070351758795</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2139973082099598</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.44427823485415108</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52451539338654496</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87393162393162382</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0085836909871244</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.16810068720245566</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.489445824698793</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.276217033253414</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0173093700924793</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.14833858408131723</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.1156232374506484E-2</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29236824841460757</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1382481296758102</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.18891679109542542</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43563739115427119</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4524383919628649</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9854760214944744</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.70652929909062168</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42261882715232857</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24785331568226765</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7803335566835248</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17844765342960286</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43404431559329054</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1700932479496686</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8382923673997413</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.62943432406519662</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65555555555555556</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2479366127434797</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7788990825688076</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.26360401727908772</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68035836723499565</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1023284835077569</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5654538391816653</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.4259601181683896</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.80816774696277405</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28501206135360252</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2972605604349645</v>
       </c>
     </row>
@@ -3576,7 +3551,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -4096,7 +4071,7 @@
         <v>0.34164906765106273</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ref="B17:O17" si="0">(B2-C2)/C2</f>
+        <f t="shared" ref="B17:I17" si="0">(B2-C2)/C2</f>
         <v>0.29424293430753706</v>
       </c>
       <c r="C17" s="1">
@@ -4130,7 +4105,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:O31" si="1">(A3-B3)/B3</f>
+        <f t="shared" ref="A18:I31" si="1">(A3-B3)/B3</f>
         <v>0.36970410173431756</v>
       </c>
       <c r="B18" s="1">
@@ -4373,13 +4348,11 @@
         <f t="shared" si="1"/>
         <v>4.9125771378195715</v>
       </c>
-      <c r="E24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -4411,25 +4384,20 @@
         <f t="shared" si="1"/>
         <v>62.464302600472806</v>
       </c>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4674,7 +4642,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -6421,17 +6389,14 @@
         <f t="shared" si="2"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="L24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="2"/>
@@ -6519,9 +6484,8 @@
         <f t="shared" si="2"/>
         <v>-0.92905457558161297</v>
       </c>
-      <c r="O25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="O25" s="1">
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ref="P25:U25" si="10">(P10-Q10)/Q10</f>
@@ -7078,7 +7042,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -8212,1351 +8176,1338 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f>(A2-B2)/B2</f>
+        <f t="shared" ref="A17:V17" si="0">(A2-B2)/B2</f>
         <v>0.18345160803261362</v>
       </c>
       <c r="B17" s="1">
-        <f>(B2-C2)/C2</f>
+        <f t="shared" si="0"/>
         <v>0.24656502917372483</v>
       </c>
       <c r="C17" s="1">
-        <f>(C2-D2)/D2</f>
+        <f t="shared" si="0"/>
         <v>0.24295239209264241</v>
       </c>
       <c r="D17" s="1">
-        <f>(D2-E2)/E2</f>
+        <f t="shared" si="0"/>
         <v>0.28730612859509108</v>
       </c>
       <c r="E17" s="1">
-        <f>(E2-F2)/F2</f>
+        <f t="shared" si="0"/>
         <v>0.26015180265654647</v>
       </c>
       <c r="F17" s="1">
-        <f>(F2-G2)/G2</f>
+        <f t="shared" si="0"/>
         <v>0.25596044987693012</v>
       </c>
       <c r="G17" s="1">
-        <f>(G2-H2)/H2</f>
+        <f t="shared" si="0"/>
         <v>0.25869388362398937</v>
       </c>
       <c r="H17" s="1">
-        <f>(H2-I2)/I2</f>
+        <f t="shared" si="0"/>
         <v>0.24073867990574638</v>
       </c>
       <c r="I17" s="1">
-        <f>(I2-J2)/J2</f>
+        <f t="shared" si="0"/>
         <v>0.31996611154548399</v>
       </c>
       <c r="J17" s="1">
-        <f>(J2-K2)/K2</f>
+        <f t="shared" si="0"/>
         <v>0.33466975062250115</v>
       </c>
       <c r="K17" s="1">
-        <f>(K2-L2)/L2</f>
+        <f t="shared" si="0"/>
         <v>0.34575006209908582</v>
       </c>
       <c r="L17" s="1">
-        <f>(L2-M2)/M2</f>
+        <f t="shared" si="0"/>
         <v>0.36774223526209954</v>
       </c>
       <c r="M17" s="1">
-        <f>(M2-N2)/N2</f>
+        <f t="shared" si="0"/>
         <v>0.26927127574424592</v>
       </c>
       <c r="N17" s="1">
-        <f>(N2-O2)/O2</f>
+        <f t="shared" si="0"/>
         <v>0.2125005456137761</v>
       </c>
       <c r="O17" s="1">
-        <f>(O2-P2)/P2</f>
+        <f t="shared" si="0"/>
         <v>0.43818485374649385</v>
       </c>
       <c r="P17" s="1">
-        <f>(P2-Q2)/Q2</f>
+        <f t="shared" si="0"/>
         <v>0.506141646114046</v>
       </c>
       <c r="Q17" s="1">
-        <f>(Q2-R2)/R2</f>
+        <f t="shared" si="0"/>
         <v>0.60428197523373672</v>
       </c>
       <c r="R17" s="1">
-        <f>(R2-S2)/S2</f>
+        <f t="shared" si="0"/>
         <v>0.75680793763288468</v>
       </c>
       <c r="S17" s="1">
-        <f>(S2-T2)/T2</f>
+        <f t="shared" si="0"/>
         <v>0.83679951678243758</v>
       </c>
       <c r="T17" s="1">
-        <f>(T2-U2)/U2</f>
+        <f t="shared" si="0"/>
         <v>0.88313623972857946</v>
       </c>
       <c r="U17" s="1">
-        <f>(U2-V2)/V2</f>
+        <f t="shared" si="0"/>
         <v>1.2754696773617744</v>
       </c>
       <c r="V17" s="1">
-        <f>(V2-W2)/W2</f>
+        <f t="shared" si="0"/>
         <v>3.1230910763569462</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:V29" si="0">(A3-B3)/B3</f>
+        <f t="shared" ref="A18:V29" si="1">(A3-B3)/B3</f>
         <v>0.20250521920668058</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30855499640546369</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27311001281347247</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23597285067873303</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26792885829030405</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4934894399671656</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34505997685750761</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28169058815622228</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34639377013087619</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44795615845045578</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39981980747214463</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51250830736962771</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27177280217117372</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16988175315574386</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28486342523792035</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4432752964925562</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71990278621647419</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0662999940216418</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93677994557980671</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66679532953777865</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71374235157929555</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76709526592635868</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19006147540983606</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29657920956492861</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77221895232489701</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26319702602230483</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1273398761556042</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20255825011887779</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17277423844959583</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21350321988614676</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70401992665882529</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37834899482471412</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0764924880521745</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42441281004945741</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4783297656445471</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48523886205045602</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93690019193857976</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0746640119462418</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91515729265967605</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21458896179081419</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7402402402402385E-2</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10861423220973787</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7909407665505228</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17348053590937842</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21640903686087989</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22879243661366566</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31290904987587453</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25630847745959739</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16443895221623897</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22830502769734867</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22694478091711132</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31129648502183727</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30127087813612474</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33059760969677521</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33201441257616904</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26865541999392939</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22347360381549403</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48377169650793861</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52590373551061853</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57108141452492633</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68436408925210435</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81486984126984119</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93831840110268783</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.48307052927515</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1281669150521605</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10134774090126462</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21680393006790927</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24344232842256558</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34120481927710844</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25757575757575757</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10356525147242358</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23128627339563246</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16611960407905749</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24282061304442532</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35884875308343639</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36605948087165346</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46594566505902812</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32093360475168003</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17642917345903622</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42341235632183927</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45833224202867417</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72830151099522888</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61959223172850619</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73810160938873814</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53491237677984671</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3373790217106985</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4985313107519264E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3905109489051095</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20439560439560439</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.5427435387673953E-2</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.10498220640569395</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23788546255506607</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.878011833706644</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4377929556716126E-2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5127271978191754</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.49092542489006341</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5839942191310634</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1554795496650989</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3598572263761961</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.15420049968769522</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80841517366885274</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1386084986951595</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.6445247359644251</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1815612857647473</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0394171779141108</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.88278388278388</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.026</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.51984635083226627</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.34177138987132211</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.2062937062937063</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.87186379928315416</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0655737704918034</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.345070422535211E-2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.947368421052632</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.72636869657888858</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7090299046095623</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9636931259756023</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2996947729874093</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.9222588925559223</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1314660367352842</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.37207119937034572</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18325094920839602</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27771167048054907</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.15799614643545271</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59329526616319772</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92745562130177517</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1647940074906367</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.33049147442326982</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0087873462214416</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0825355381491151</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.8773903262092242</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30454545454545456</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74603174603174605</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8167938931297711E-2</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.14935064935064934</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77011494252873558</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.2340090798759378E-2</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22767469131544457</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0268033917282185E-2</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.1469350222118661E-2</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4948623497479643</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81566441771780562</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.31570918142037002</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.454499999999999</v>
       </c>
-      <c r="N24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="N24" s="1">
+        <v>0</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.76165803108808294</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7971014492753621</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86486486486486513</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68181818181818188</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.7142857142857143</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.71691176470588236</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4761904761904763</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.2396514161220042</v>
       </c>
-      <c r="B25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B25" s="1">
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31.714285714285715</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.53333333333333333</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1474360864565212</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.393315483334874</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.9408443363446837</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-107.59259259259261</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.99349044662768971</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.5963730569948194</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45770392749244704</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1116708648194793</v>
       </c>
-      <c r="N25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.56919060052219317</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.40179617336977741</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6274787535410766</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.28179043743641913</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3404761904761904</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.546507505023047</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.60511208948490181</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3016589623859025</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.40468241440485003</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8008748454544035</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8356994927514485</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3194404494812941</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.26747248579515526</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66348490513132075</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85211953346460945</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6982234314980791</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.55684800340449681</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0807385556648095</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1592356687898091</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4235611510791368</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.65530068195908242</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.8814963595279989E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1363636363636367</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0582395764394441</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.6051724137931034</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5669291338582676</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.1166666666666667</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3889814520677606</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.3808603016874805</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2519807269721588</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3944258905852416</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8815921374543465</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.5601747528167396</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6284500447963932</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.40021494565688437</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53603855473014339</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60602950609364981</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3874425727411948</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.4770992366412212</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.076417419884963</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2495378927911276</v>
       </c>
-      <c r="T27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.85595567867036015</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.64538310412573674</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.317460317460316</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.88648648648648654</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.00409726552062</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.7876270400202419</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.81945882567913275</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13142241843437052</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.14150751539129947</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.370636017974423</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1794832025312529</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.20125373208290478</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85868564060053421</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.36587491828285</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.162162162162161</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.98310739622111398</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8761230601687995</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0904951622083097</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.361671469740634</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.66038659163200386</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.6681506741182713E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22463730245638933</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.81208314729147801</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.460116079607984</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.7718731919757913</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9987487119093184</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32733185389886815</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3090403906757437</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.79621191137431579</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9746545557471232E-2</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.22166745775678892</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.438155247273112</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1577830503943323</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.23216175819664245</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="A29:V31" si="1">(N14-O14)/O14</f>
+        <f t="shared" ref="A29:V31" si="2">(N14-O14)/O14</f>
         <v>0.79804609102862811</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3128718153928238</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.447552447552447</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.98330330931411791</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6194156000965951</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94026004451212364</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3616606651133236</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.66039391715942275</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.88213798810307054</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.85930122757318228</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.66139088729016793</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.544534412955464</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.89636363636363647</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9183673469387754</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88461538461538447</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7142857142857144</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.83333333333333326</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6923076923076844E-2</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.18749999999999994</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.333333333333332</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1914893617021276</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.25396825396825401</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.98333333333333328</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4285714285714279</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3601694915254239</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.66043165467625908</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.88319327731092434</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40777820562187139</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19155769671943107</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24046670461013089</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55417956656346745</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25680933852140075</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5356527720224051</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18164285000499653</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98379055252871983</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6312733206157244</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.2143187066974595</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13188108116954853</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.29462662272068713</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8459652476417088E-2</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68933840121147716</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2393325547969816</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9997754322928358</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.65539390187277513</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6734250543084721</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3753491620111733</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3654925982644204</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.59743128692525038</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.39851366593019483</v>
       </c>
     </row>
@@ -9574,7 +9525,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A31" sqref="A17:A31"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -10378,25 +10329,20 @@
         <f t="shared" si="1"/>
         <v>0.68205300234820543</v>
       </c>
-      <c r="E24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10508,9 +10454,8 @@
         <f t="shared" si="1"/>
         <v>8.384615384615385</v>
       </c>
-      <c r="I27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10679,7 +10624,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A17:A31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -11250,631 +11195,626 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f>(A2-B2)/B2</f>
+        <f t="shared" ref="A17:J17" si="0">(A2-B2)/B2</f>
         <v>5.8487539611126328E-2</v>
       </c>
       <c r="B17" s="1">
-        <f>(B2-C2)/C2</f>
+        <f t="shared" si="0"/>
         <v>0.1925445553793039</v>
       </c>
       <c r="C17" s="1">
-        <f>(C2-D2)/D2</f>
+        <f t="shared" si="0"/>
         <v>0.2224250028516026</v>
       </c>
       <c r="D17" s="1">
-        <f>(D2-E2)/E2</f>
+        <f t="shared" si="0"/>
         <v>0.13261417221109748</v>
       </c>
       <c r="E17" s="1">
-        <f>(E2-F2)/F2</f>
+        <f t="shared" si="0"/>
         <v>0.18383421273992506</v>
       </c>
       <c r="F17" s="1">
-        <f>(F2-G2)/G2</f>
+        <f t="shared" si="0"/>
         <v>0.2195281171313998</v>
       </c>
       <c r="G17" s="1">
-        <f>(G2-H2)/H2</f>
+        <f t="shared" si="0"/>
         <v>0.18277079196999779</v>
       </c>
       <c r="H17" s="1">
-        <f>(H2-I2)/I2</f>
+        <f t="shared" si="0"/>
         <v>0.12467435802009676</v>
       </c>
       <c r="I17" s="1">
-        <f>(I2-J2)/J2</f>
+        <f t="shared" si="0"/>
         <v>0.19759322537512999</v>
       </c>
       <c r="J17" s="1">
-        <f>(J2-K2)/K2</f>
+        <f t="shared" si="0"/>
         <v>0.19811320754716982</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:J31" si="0">(A3-B3)/B3</f>
+        <f t="shared" ref="A18:J31" si="1">(A3-B3)/B3</f>
         <v>6.0074349442379181E-2</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39682209990653233</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15069311663479923</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10849119088621009</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20977564102564103</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19654841802492809</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19857504022063893</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.2060633690449053E-3</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17299465240641712</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21468009093861642</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1106719367588931E-2</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3919259882253998E-2</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93648208469055372</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19455252918287938</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3406998158379376E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19078947368421054</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17829457364341086</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13907284768211919</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18586387434554974</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6725291057716128E-2</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5921219822109275E-2</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28791184813440979</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15557236510337871</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16015796401930671</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24128540305010893</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16818663838812301</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28334240609689709</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22835172183216315</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17802284363922805</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5926439972241499E-2</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.965344765987853E-2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2695796794677956</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22504167438414521</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1749727965179543</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13709477852016827</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19273907910271545</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42953586497890295</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12589073634204276</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.20646876384581303</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32453051643192488</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33542319749216298</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5009869719699961E-3</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12979482604817127</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52828902522154053</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10550113036925396</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.763803680981595E-2</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19086757990867581</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.86567164179104472</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0665673124689519</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.054628224582701</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1396103896103895</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.625</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2077922077922079</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.19791666666666666</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.9230769230769234</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2641509433962264</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31034482758620691</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11004784688995216</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81739130434782614</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4935064935064935</v>
       </c>
-      <c r="E24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.1632653061224492</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.74742268041237114</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.799999999999997</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3225806451612903</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6666666666666667</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1764705882352942</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17882410343986338</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.19072063178677195</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68945963975983993</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26178451178451179</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34886572654812997</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6102150537634407E-2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18001586042823156</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16328413284132842</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21661054994388329</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14.528571428571428</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0811123986095017</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60111317254174401</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.21234567901234569</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76086956521739135</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.11538461538461539</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.69121140142517812</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5271317829457365</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1415929203539823</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.41976493163828255</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.8534031413612562E-3</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70882472549816999</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19543023821098687</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14596100278551533</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28122769450392576</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14087947882736157</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9307875894988067</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.56125654450261775</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22750642673521851</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.42866421865309595</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.277769413897901E-2</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70459233815987798</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9164058169276537E-2</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31156650556056603</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28950658759859116</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12554150444070519</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.947815322889247</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.55691427118108505</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20635538000722098</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.40572371415566683</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.0056497175141055E-3</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71022754722450354</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.210538627989941</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16319727891156463</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27826086956521745</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9086678301337987</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.56153551842877181</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22745773324984342</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.15227548018688356</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25712421144224495</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45198989260897032</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9054808007876599E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4075403949730699E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27110908261068006</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13229974160206717</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3186813186813184E-2</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17571059431524547</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25141471301535973</v>
       </c>
     </row>
@@ -11891,8 +11831,8 @@
   </sheetPr>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -12649,871 +12589,856 @@
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f>(A2-B2)/B2</f>
+        <f t="shared" ref="A17:N17" si="0">(A2-B2)/B2</f>
         <v>0.36655466057066249</v>
       </c>
       <c r="B17" s="1">
-        <f>(B2-C2)/C2</f>
+        <f t="shared" si="0"/>
         <v>0.19928321039210364</v>
       </c>
       <c r="C17" s="1">
-        <f>(C2-D2)/D2</f>
+        <f t="shared" si="0"/>
         <v>-5.4915245327746491E-2</v>
       </c>
       <c r="D17" s="1">
-        <f>(D2-E2)/E2</f>
+        <f t="shared" si="0"/>
         <v>0.30832663157719586</v>
       </c>
       <c r="E17" s="1">
-        <f>(E2-F2)/F2</f>
+        <f t="shared" si="0"/>
         <v>0.37725607501764519</v>
       </c>
       <c r="F17" s="1">
-        <f>(F2-G2)/G2</f>
+        <f t="shared" si="0"/>
         <v>0.37809896258243814</v>
       </c>
       <c r="G17" s="1">
-        <f>(G2-H2)/H2</f>
+        <f t="shared" si="0"/>
         <v>0.42116286549926341</v>
       </c>
       <c r="H17" s="1">
-        <f>(H2-I2)/I2</f>
+        <f t="shared" si="0"/>
         <v>0.48252841696700849</v>
       </c>
       <c r="I17" s="1">
-        <f>(I2-J2)/J2</f>
+        <f t="shared" si="0"/>
         <v>0.48989006123130102</v>
       </c>
       <c r="J17" s="1">
-        <f>(J2-K2)/K2</f>
+        <f t="shared" si="0"/>
         <v>0.52114665433488827</v>
       </c>
       <c r="K17" s="1">
-        <f>(K2-L2)/L2</f>
+        <f t="shared" si="0"/>
         <v>0.64470899470899468</v>
       </c>
       <c r="L17" s="1">
-        <f>(L2-M2)/M2</f>
+        <f t="shared" si="0"/>
         <v>0.82594912823609312</v>
       </c>
       <c r="M17" s="1">
-        <f>(M2-N2)/N2</f>
+        <f t="shared" si="0"/>
         <v>0.89271428571428579</v>
       </c>
       <c r="N17" s="1">
-        <f>(N2-O2)/O2</f>
+        <f t="shared" si="0"/>
         <v>0.92773738708966746</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:N31" si="0">(A3-B3)/B3</f>
+        <f t="shared" ref="A18:N31" si="1">(A3-B3)/B3</f>
         <v>0.13971707251941157</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29934764328391245</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.302849142812332</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25790307419141462</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34424298679063525</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34208308689211891</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67411191531869397</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66898710111439352</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0275166790214973</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57416915608663188</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84610081861266684</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74353966346153866</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0231003039513678</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17626027887021803</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.846450766915071E-2</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.2357427336666456E-2</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74829629629629635</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28743086019454511</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28062333602012646</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27490424438700845</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64758093479041612</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56002881383063874</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86700537955768076</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42382978723404252</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2169811320754718</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.21294363256785</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1321961620469104E-2</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2374670184696569</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4523886487308571</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16532493046001523</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.13547980971840545</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32024419645979585</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38529698695668291</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38716593183309556</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.369085697070067</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44919567996611731</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42246130503016005</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51474763406940072</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62333683873622614</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83515413918676273</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87918637653736986</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0645875382511882</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5362080272994248E-3</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25813084634438588</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11183337658397884</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28487408622330279</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37586753604015077</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12278584208507418</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31194023813376232</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40485737255288662</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73369554193651199</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72939018706809733</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69053972772172378</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87715280759505732</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61184733294030214</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28218358694580464</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.76147824932244979</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45899420332821023</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9193615123275192</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4486179146969686E-2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32232889272423282</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.46075252086053908</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20126963940703577</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32627311060655212</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8318920834044119</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4587663958607537</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5366106378079669</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6369156041287187</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.54895248528002194</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.51533050172551098</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.970496894409937</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1359223300970873</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0915821010921041</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72766739021539484</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6045292906606772</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7680344142951689</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.3627834245504302</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31855670103092776</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.3956834532374103</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5723684210526319</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0714285714285714</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4987080103359176</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6086956521739131</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2078313253012047</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.73638873297517726</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4186193896454225</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27872497376596123</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2936634654338344</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7717762110529902</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1085189112760689</v>
       </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.23106423777565</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.82398109864146485</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9503333333333335</v>
       </c>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H25" s="1">
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.85092638602967274</v>
       </c>
-      <c r="K25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.77976792669686679</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49959935541724748</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7168559720911438</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26011527749809088</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39356987414024064</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.45990642927002251</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21991738881679021</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33422081549059768</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7194248246879829</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.196452402135231</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3260588126502686</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9377886443901113</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.50067824199674438</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.49972855591748105</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62770348357272565</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7475476053087129</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38170221247757624</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.59494590666881964</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1274871039056737</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.75358634465226071</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6995680894308942</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.4586994727592266</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>378.33333333333331</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.99158485273492281</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0056179775280896</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42399999999999993</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58227848101265822</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1944444444444446</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.79250046859936207</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47480891649595802</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6969596160015208</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22168395765974666</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44874302116518949</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.4644597664905164</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27412006944743383</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2839772287625047</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7480255164034024</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1539216488100106</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3370633187772922</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8880714661061484</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.48919608106294454</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.49559978337395078</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.78731934474672349</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42012549932152971</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6896548450158893</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13100246767220547</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36947151548306556</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.48726496222731774</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21112661039740815</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20817907440783057</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4562783033824489</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2080580688400593</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8750451612903225</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8880552519129485</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.48919429956472626</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.49559935222464752</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.79346054966144042</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45761787473610127</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.565329241323284</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17152223338444458</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39066176470588226</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.48679245283018863</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20454545454545442</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21546961325966857</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4133333333333333</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63043478260869557</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9586919104991396</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8905472636815921</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.48984771573604058</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.49551856594110122</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.83443812477435619</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55711986139355985</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3227958251460943</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6560912717971638E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33414781025687174</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.53653943628536049</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16865617923608711</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31190855613921198</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9247788247140902</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0105578953441414</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6398111483399329</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.810787671232877</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.63299293008641</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.55520614954577219</v>
       </c>
     </row>
@@ -13531,7 +13456,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -16504,76 +16429,59 @@
         <f t="shared" si="0"/>
         <v>0.95364238410596025</v>
       </c>
-      <c r="M24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="1" t="e">
-        <f t="shared" ref="B24:AK31" si="2">(T9-U9)/U9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B24:AK31" si="2">(AD9-AE9)/AE9</f>
         <v>-1</v>
       </c>
       <c r="AE24" s="1">
@@ -16584,25 +16492,20 @@
         <f t="shared" si="2"/>
         <v>0.25801058790749504</v>
       </c>
-      <c r="AG24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -16690,25 +16593,21 @@
         <f t="shared" si="2"/>
         <v>0.27117346938775505</v>
       </c>
-      <c r="V25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="Y25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="2"/>
@@ -16718,41 +16617,32 @@
         <f t="shared" si="2"/>
         <v>-0.48888888888888887</v>
       </c>
-      <c r="AC25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -17346,13 +17236,11 @@
         <f t="shared" si="2"/>
         <v>2.4136403897254208</v>
       </c>
-      <c r="AJ29" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK29" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -17496,13 +17384,11 @@
         <f t="shared" si="2"/>
         <v>2.4222222222222225</v>
       </c>
-      <c r="AJ30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -17669,7 +17555,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -18138,511 +18024,503 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f>(A2-B2)/B2</f>
+        <f t="shared" ref="A17:H17" si="0">(A2-B2)/B2</f>
         <v>0.42900982232747087</v>
       </c>
       <c r="B17" s="1">
-        <f>(B2-C2)/C2</f>
+        <f t="shared" si="0"/>
         <v>0.55633666258091707</v>
       </c>
       <c r="C17" s="1">
-        <f>(C2-D2)/D2</f>
+        <f t="shared" si="0"/>
         <v>0.42547524429800682</v>
       </c>
       <c r="D17" s="1">
-        <f>(D2-E2)/E2</f>
+        <f t="shared" si="0"/>
         <v>0.46790514309186626</v>
       </c>
       <c r="E17" s="1">
-        <f>(E2-F2)/F2</f>
+        <f t="shared" si="0"/>
         <v>0.5562606461973828</v>
       </c>
       <c r="F17" s="1">
-        <f>(F2-G2)/G2</f>
+        <f t="shared" si="0"/>
         <v>0.60015842720457091</v>
       </c>
       <c r="G17" s="1">
-        <f>(G2-H2)/H2</f>
+        <f t="shared" si="0"/>
         <v>0.86627399397022364</v>
       </c>
       <c r="H17" s="1">
-        <f>(H2-I2)/I2</f>
+        <f t="shared" si="0"/>
         <v>1.0947817605462082</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:H31" si="0">(A3-B3)/B3</f>
+        <f t="shared" ref="A18:H31" si="1">(A3-B3)/B3</f>
         <v>0.3773791955197337</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5403820596715655</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36905889237644296</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39990914033349967</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39815277604231741</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37818406210984018</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56724843686743742</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0658860700678379</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9361409508233334E-2</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40621488121684135</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64916061461543428</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6082556406612829</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30079798025337001</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21194404983061968</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61578529178070096</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4023329798515378</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45165501949554981</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56343909687552984</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45211342964151957</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50236054660522822</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65085881964475956</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77080414372869388</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1870671974906502</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1266933497536946</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29349436760019626</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0635993255275549</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34757614388092606</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51362570827346865</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40753640847965233</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56799373870607606</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47970332019108752</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50035773604190636</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.228698996109426E-2</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4798172012989879</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11939709293081033</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53881135991630247</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.867640885014249E-2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34683541258135531</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3896404695478303E-2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29270865230852988</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2522522522522521</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.24226204328601345</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.24565509977178296</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86154684095860556</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4577883472057076</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.128205128205131</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.0526315789473681</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.90452261306532666</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.88067084680306351</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26867602532342427</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6894177739941518</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79252919320594484</v>
       </c>
-      <c r="E24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.36671005875523338</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.119752540874945</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.87442428278119977</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.382727272727271</v>
       </c>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.7309908484916988E-2</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1920538260121498</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26557537607211446</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67576525327851877</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13927566488154663</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3260074141832362</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3109845145841794E-2</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28866923246469206</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11.894941634241246</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.113475177304965</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0993657505285412</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82.470588235294116</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.9470404984423676</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.7552941176470589</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44067796610169496</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2692307692307689</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.9380677525397416E-2</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1855391015724734</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2748464671896913</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66468521159868377</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14245009057888552</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31541510495874703</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4453618515897259E-2</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29082573463483974</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.500155245617598E-2</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6246540983252089</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24277737967275753</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4433618799387698</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12332460341328294</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.69829323929803633</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3123806317298881</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.10008549842089649</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7374379059992358</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17472786443721239</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5266403974644509</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.11787819253438109</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.69829472916286706</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3123410439626984</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2110921508254872E-6</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8164638435098886E-2</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7231045262588829</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.1384027062803319E-2</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51646611426468447</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1473510671479818E-3</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38492155320035187</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4744436368134824E-3</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19594207187378626</v>
       </c>
     </row>
